--- a/PiApproximation_Growth_Chart.xlsx
+++ b/PiApproximation_Growth_Chart.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Pi-Approximation-And-Sorting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mac\Desktop\SCHOOL\CBALGCM\MCO1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F26AA75-ED8A-4482-9AB0-1861C980948F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B5E3B-00DF-4726-B052-9CDC06C86D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="8" windowWidth="21585" windowHeight="12765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>N</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>Expected Value</t>
+  </si>
+  <si>
+    <t>Single For-Loop</t>
+  </si>
+  <si>
+    <t>Double For-Loop</t>
   </si>
 </sst>
 </file>
@@ -86,13 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3488,6 +3494,3379 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>Pi Approximation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000000000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200000000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300000000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400000000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500000000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600000000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700000000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900000000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100000000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300000000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400000000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500000000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600000000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700000000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800000000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900000000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100000000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200000000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300000000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400000000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500000000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600000000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700000000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800000000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900000000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200000000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300000000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400000000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500000000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600000000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700000000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800000000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.1415139999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1415839999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1416010000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1416360000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1416300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1415820000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1416300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1416029999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.141613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1416390000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1416620000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1416430000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.141645</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1416499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1416409999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1416240000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.141616</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1416200000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1416149999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1416050000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1416050000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1416029999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1416010000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1416010000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1415950000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1416080000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1416140000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1416170000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1416010000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1416019999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1415950000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1415850000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1415860000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.141581</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.141575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.141575</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1415799999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1415829999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1415839999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1415839999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1415839999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1415850000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1415839999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.141591</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.141591</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1415860000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1415839999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1415869999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.141588</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1415860000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.141588</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1415860000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1415899999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1415869999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1415860000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.141578</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1415790000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1415799999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1415769999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1415790000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1415820000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1415869999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.141591</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1415950000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1415950000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1415959999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.141594</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1415890000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.141591</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.141591</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1415929999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1415950000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65CA-4014-8EAD-A5D62456A3BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expected Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000000000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200000000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300000000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400000000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500000000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600000000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700000000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900000000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100000000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300000000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400000000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500000000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600000000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700000000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800000000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900000000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100000000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200000000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300000000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400000000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500000000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600000000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700000000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800000000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900000000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200000000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300000000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400000000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500000000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600000000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700000000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800000000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.9999099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9997120000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9993799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9989129999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9983140000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9975800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9967130000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.995711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9945759999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.993306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9919020000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9903620000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9886879999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9868790000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9849329999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9828519999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9806339999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9782790000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.975787</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.973157</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9703889999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9674809999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9644349999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9612479999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9579209999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.954453</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9508420000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9470890000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9431929999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.939152</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9349660000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.930634</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9261550000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.921529</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9167540000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9118279999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.906752</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9015240000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8961429999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8906070000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8849149999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.879067</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.873059</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.866892</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8605640000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8540719999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8474159999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8405930000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8336030000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8264420000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8191090000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8116020000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8039190000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7960579999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7880150000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7797900000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.771379</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7627790000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7539880000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7450040000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7358210000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.7264390000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.7168519999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7070590000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6970529999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.686833</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.676393</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.6657299999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.6548370000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6437119999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6323470000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6207379999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.6088779999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.596762</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5843820000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5717300000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5588000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.5455830000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5320689999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.5182479999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.5041099999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.4896430000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.474834</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.4596689999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4441320000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4282059999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4118710000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.3951039999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.3778820000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.3601740000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.3419469999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3231619999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.3037700000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.283712</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.262915</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2412800000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2186710000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1948840000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1695540000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.141632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65CA-4014-8EAD-A5D62456A3BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1454932367"/>
+        <c:axId val="1454936687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1454932367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sample</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454936687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1454936687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.5"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of PI</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454932367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>First Variant </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>— Double For-loop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="0" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$107:$B$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000000000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200000000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300000000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400000000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500000000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600000000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700000000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900000000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100000000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300000000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400000000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500000000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600000000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700000000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800000000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900000000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100000000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200000000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300000000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400000000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500000000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600000000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700000000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800000000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900000000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200000000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300000000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400000000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500000000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600000000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700000000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800000000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$107:$C$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.9999099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9997120000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9993799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9989129999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9983140000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9975800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9967130000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.995711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9945759999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.993306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9919020000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9903620000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9886879999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9868790000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9849329999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9828519999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9806339999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9782790000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.975787</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.973157</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.9703889999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9674809999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9644349999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9612479999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9579209999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.954453</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9508420000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9470890000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9431929999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.939152</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.9349660000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.930634</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.9261550000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.921529</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9167540000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9118279999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.906752</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.9015240000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8961429999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8906070000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.8849149999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.879067</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.873059</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.866892</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8605640000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8540719999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8474159999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.8405930000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8336030000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8264420000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8191090000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8116020000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8039190000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.7960579999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.7880150000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.7797900000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.771379</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.7627790000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7539880000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.7450040000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7358210000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.7264390000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.7168519999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.7070590000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6970529999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.686833</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.676393</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.6657299999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.6548370000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6437119999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6323470000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6207379999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.6088779999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.596762</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5843820000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5717300000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5588000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.5455830000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5320689999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.5182479999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.5041099999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.4896430000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.474834</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.4596689999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4441320000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4282059999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4118710000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.3951039999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.3778820000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.3601740000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.3419469999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3231619999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.3037700000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.283712</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.262915</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2412800000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2186710000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1948840000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1695540000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.141632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30F3-4B58-88FB-8C5C35743D70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expected Value</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$107:$B$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300000000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400000000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500000000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600000000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700000000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800000000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900000000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000000000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4100000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4200000000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4300000000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4400000000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4500000000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4600000000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4700000000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4800000000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4900000000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5000000000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5100000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5200000000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5300000000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5400000000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5500000000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5600000000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5700000000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5800000000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5900000000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6000000000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6100000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6200000000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6300000000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6400000000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6500000000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6600000000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6700000000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6800000000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6900000000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7000000000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7100000000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7200000000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7300000000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7400000000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7500000000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7600000000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7700000000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7800000000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7900000000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8000000000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8100000000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8200000000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8300000000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8400000000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8500000000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8600000000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8700000000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8800000000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8900000000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9000000000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9100000000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9200000000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9300000000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9400000000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9500000000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9600000000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9700000000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9800000000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9900000000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$D$107:$D$206</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1415920000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30F3-4B58-88FB-8C5C35743D70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1454932367"/>
+        <c:axId val="1454936687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1454932367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454936687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1454936687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of PI</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454932367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3529,6 +6908,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4600,6 +8059,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4610,10 +9101,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4657,6 +9148,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DF793B-7FA7-468E-8515-BBA32187E104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>291877</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514128</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171673</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E655AD4-BCA1-40F8-87FD-AB2B3BF58F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CDF83D-C014-4AA6-A130-E779D44AAB6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,16 +9516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A5ADD-EC9A-4D18-85E2-326F3A96EACB}">
   <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView topLeftCell="A89" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +9536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2">
         <v>100000000</v>
@@ -4976,9 +9548,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>200000000</v>
       </c>
       <c r="C3">
@@ -4988,9 +9560,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>300000000</v>
       </c>
       <c r="C4">
@@ -5000,9 +9572,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>400000000</v>
       </c>
       <c r="C5">
@@ -5012,9 +9584,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>500000000</v>
       </c>
       <c r="C6">
@@ -5024,9 +9596,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>600000000</v>
       </c>
       <c r="C7">
@@ -5036,9 +9608,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>700000000</v>
       </c>
       <c r="C8">
@@ -5048,9 +9620,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>800000000</v>
       </c>
       <c r="C9">
@@ -5060,9 +9632,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>900000000</v>
       </c>
       <c r="C10">
@@ -5072,9 +9644,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>1000000000</v>
       </c>
       <c r="C11">
@@ -5084,9 +9656,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>1100000000</v>
       </c>
       <c r="C12">
@@ -5096,9 +9668,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>1200000000</v>
       </c>
       <c r="C13">
@@ -5108,9 +9680,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>1300000000</v>
       </c>
       <c r="C14">
@@ -5120,9 +9692,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>1400000000</v>
       </c>
       <c r="C15">
@@ -5132,9 +9704,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>1500000000</v>
       </c>
       <c r="C16">
@@ -5144,9 +9716,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>1600000000</v>
       </c>
       <c r="C17">
@@ -5156,9 +9728,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>1700000000</v>
       </c>
       <c r="C18">
@@ -5168,9 +9740,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>1800000000</v>
       </c>
       <c r="C19">
@@ -5180,9 +9752,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1900000000</v>
       </c>
       <c r="C20">
@@ -5192,9 +9764,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>2000000000</v>
       </c>
       <c r="C21">
@@ -5204,9 +9776,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>2100000000</v>
       </c>
       <c r="C22">
@@ -5216,9 +9788,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>2200000000</v>
       </c>
       <c r="C23">
@@ -5228,9 +9800,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>2300000000</v>
       </c>
       <c r="C24">
@@ -5240,9 +9812,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>2400000000</v>
       </c>
       <c r="C25">
@@ -5252,9 +9824,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>2500000000</v>
       </c>
       <c r="C26">
@@ -5264,9 +9836,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>2600000000</v>
       </c>
       <c r="C27">
@@ -5276,9 +9848,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>2700000000</v>
       </c>
       <c r="C28">
@@ -5288,9 +9860,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>2800000000</v>
       </c>
       <c r="C29">
@@ -5300,9 +9872,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>2900000000</v>
       </c>
       <c r="C30">
@@ -5312,9 +9884,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>3000000000</v>
       </c>
       <c r="C31">
@@ -5324,9 +9896,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>3100000000</v>
       </c>
       <c r="C32">
@@ -5336,9 +9908,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>3200000000</v>
       </c>
       <c r="C33">
@@ -5348,9 +9920,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>3300000000</v>
       </c>
       <c r="C34">
@@ -5360,9 +9932,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>3400000000</v>
       </c>
       <c r="C35">
@@ -5372,9 +9944,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>3500000000</v>
       </c>
       <c r="C36">
@@ -5384,9 +9956,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>3600000000</v>
       </c>
       <c r="C37">
@@ -5396,9 +9968,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>3700000000</v>
       </c>
       <c r="C38">
@@ -5408,9 +9980,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>3800000000</v>
       </c>
       <c r="C39">
@@ -5420,9 +9992,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>3900000000</v>
       </c>
       <c r="C40">
@@ -5432,9 +10004,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1"/>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>4000000000</v>
       </c>
       <c r="C41">
@@ -5444,9 +10016,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1"/>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>4100000000</v>
       </c>
       <c r="C42">
@@ -5456,9 +10028,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1"/>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>4200000000</v>
       </c>
       <c r="C43">
@@ -5468,9 +10040,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1"/>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>4300000000</v>
       </c>
       <c r="C44">
@@ -5480,9 +10052,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1"/>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>4400000000</v>
       </c>
       <c r="C45">
@@ -5492,9 +10064,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1"/>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>4500000000</v>
       </c>
       <c r="C46">
@@ -5504,9 +10076,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>4600000000</v>
       </c>
       <c r="C47">
@@ -5516,9 +10088,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>4700000000</v>
       </c>
       <c r="C48">
@@ -5528,9 +10100,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>4800000000</v>
       </c>
       <c r="C49">
@@ -5540,9 +10112,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>4900000000</v>
       </c>
       <c r="C50">
@@ -5552,9 +10124,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>5000000000</v>
       </c>
       <c r="C51">
@@ -5564,9 +10136,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>5100000000</v>
       </c>
       <c r="C52">
@@ -5576,9 +10148,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>5200000000</v>
       </c>
       <c r="C53">
@@ -5588,9 +10160,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>5300000000</v>
       </c>
       <c r="C54">
@@ -5600,9 +10172,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>5400000000</v>
       </c>
       <c r="C55">
@@ -5612,9 +10184,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>5500000000</v>
       </c>
       <c r="C56">
@@ -5624,9 +10196,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>5600000000</v>
       </c>
       <c r="C57">
@@ -5636,9 +10208,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>5700000000</v>
       </c>
       <c r="C58">
@@ -5648,9 +10220,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>5800000000</v>
       </c>
       <c r="C59">
@@ -5660,9 +10232,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>5900000000</v>
       </c>
       <c r="C60">
@@ -5672,9 +10244,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>6000000000</v>
       </c>
       <c r="C61">
@@ -5684,9 +10256,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>6100000000</v>
       </c>
       <c r="C62">
@@ -5696,9 +10268,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>6200000000</v>
       </c>
       <c r="C63">
@@ -5708,9 +10280,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>6300000000</v>
       </c>
       <c r="C64">
@@ -5720,9 +10292,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>6400000000</v>
       </c>
       <c r="C65">
@@ -5732,9 +10304,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>6500000000</v>
       </c>
       <c r="C66">
@@ -5744,9 +10316,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>6600000000</v>
       </c>
       <c r="C67">
@@ -5756,9 +10328,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>6700000000</v>
       </c>
       <c r="C68">
@@ -5768,9 +10340,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>6800000000</v>
       </c>
       <c r="C69">
@@ -5780,9 +10352,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>6900000000</v>
       </c>
       <c r="C70">
@@ -5792,9 +10364,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>7000000000</v>
       </c>
       <c r="C71">
@@ -5804,9 +10376,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>7100000000</v>
       </c>
       <c r="C72">
@@ -5816,9 +10388,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>7200000000</v>
       </c>
       <c r="C73">
@@ -5828,9 +10400,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>7300000000</v>
       </c>
       <c r="C74">
@@ -5840,9 +10412,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>7400000000</v>
       </c>
       <c r="C75">
@@ -5852,9 +10424,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>7500000000</v>
       </c>
       <c r="C76">
@@ -5864,9 +10436,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>7600000000</v>
       </c>
       <c r="C77">
@@ -5876,9 +10448,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>7700000000</v>
       </c>
       <c r="C78">
@@ -5888,9 +10460,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>7800000000</v>
       </c>
       <c r="C79">
@@ -5900,9 +10472,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>7900000000</v>
       </c>
       <c r="C80">
@@ -5912,9 +10484,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>8000000000</v>
       </c>
       <c r="C81">
@@ -5924,9 +10496,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>8100000000</v>
       </c>
       <c r="C82">
@@ -5936,9 +10508,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>8200000000</v>
       </c>
       <c r="C83">
@@ -5948,9 +10520,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>8300000000</v>
       </c>
       <c r="C84">
@@ -5960,9 +10532,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>8400000000</v>
       </c>
       <c r="C85">
@@ -5972,9 +10544,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>8500000000</v>
       </c>
       <c r="C86">
@@ -5984,9 +10556,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>8600000000</v>
       </c>
       <c r="C87">
@@ -5996,9 +10568,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>8700000000</v>
       </c>
       <c r="C88">
@@ -6008,9 +10580,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>8800000000</v>
       </c>
       <c r="C89">
@@ -6020,9 +10592,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>8900000000</v>
       </c>
       <c r="C90">
@@ -6032,9 +10604,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>9000000000</v>
       </c>
       <c r="C91">
@@ -6044,9 +10616,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>9100000000</v>
       </c>
       <c r="C92">
@@ -6056,9 +10628,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>9200000000</v>
       </c>
       <c r="C93">
@@ -6068,9 +10640,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>9300000000</v>
       </c>
       <c r="C94">
@@ -6080,9 +10652,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>9400000000</v>
       </c>
       <c r="C95">
@@ -6092,9 +10664,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>9500000000</v>
       </c>
       <c r="C96">
@@ -6104,9 +10676,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>9600000000</v>
       </c>
       <c r="C97">
@@ -6116,9 +10688,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>9700000000</v>
       </c>
       <c r="C98">
@@ -6128,9 +10700,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>9800000000</v>
       </c>
       <c r="C99">
@@ -6140,9 +10712,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>9900000000</v>
       </c>
       <c r="C100">
@@ -6152,9 +10724,9 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>10000000000</v>
       </c>
       <c r="C101">
@@ -6164,7 +10736,7 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B106" s="2" t="s">
         <v>0</v>
       </c>
@@ -6175,8 +10747,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B107" s="3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B107">
         <v>100000000</v>
       </c>
       <c r="C107">
@@ -6186,8 +10758,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B108" s="3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B108">
         <v>200000000</v>
       </c>
       <c r="C108">
@@ -6197,8 +10769,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B109" s="3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B109">
         <v>300000000</v>
       </c>
       <c r="C109">
@@ -6208,8 +10780,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B110" s="3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B110">
         <v>400000000</v>
       </c>
       <c r="C110">
@@ -6219,8 +10791,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B111" s="3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B111">
         <v>500000000</v>
       </c>
       <c r="C111">
@@ -6230,8 +10802,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B112" s="3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B112">
         <v>600000000</v>
       </c>
       <c r="C112">
@@ -6241,8 +10813,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B113" s="3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B113">
         <v>700000000</v>
       </c>
       <c r="C113">
@@ -6252,8 +10824,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B114" s="3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B114">
         <v>800000000</v>
       </c>
       <c r="C114">
@@ -6263,8 +10835,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B115" s="3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B115">
         <v>900000000</v>
       </c>
       <c r="C115">
@@ -6274,8 +10846,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B116" s="3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B116">
         <v>1000000000</v>
       </c>
       <c r="C116">
@@ -6285,8 +10857,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B117" s="3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B117">
         <v>1100000000</v>
       </c>
       <c r="C117">
@@ -6296,8 +10868,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B118" s="3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B118">
         <v>1200000000</v>
       </c>
       <c r="C118">
@@ -6307,8 +10879,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B119" s="3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B119">
         <v>1300000000</v>
       </c>
       <c r="C119">
@@ -6318,8 +10890,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B120" s="3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B120">
         <v>1400000000</v>
       </c>
       <c r="C120">
@@ -6329,8 +10901,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B121" s="3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B121">
         <v>1500000000</v>
       </c>
       <c r="C121">
@@ -6340,8 +10912,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B122" s="3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B122">
         <v>1600000000</v>
       </c>
       <c r="C122">
@@ -6351,8 +10923,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B123" s="3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B123">
         <v>1700000000</v>
       </c>
       <c r="C123">
@@ -6362,8 +10934,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B124" s="3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B124">
         <v>1800000000</v>
       </c>
       <c r="C124">
@@ -6373,8 +10945,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B125" s="3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B125">
         <v>1900000000</v>
       </c>
       <c r="C125">
@@ -6384,8 +10956,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B126" s="3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B126">
         <v>2000000000</v>
       </c>
       <c r="C126">
@@ -6395,8 +10967,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B127" s="3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B127">
         <v>2100000000</v>
       </c>
       <c r="C127">
@@ -6406,8 +10978,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B128" s="3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B128">
         <v>2200000000</v>
       </c>
       <c r="C128">
@@ -6417,8 +10989,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B129" s="3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B129">
         <v>2300000000</v>
       </c>
       <c r="C129">
@@ -6428,8 +11000,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B130" s="3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B130">
         <v>2400000000</v>
       </c>
       <c r="C130">
@@ -6439,8 +11011,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B131" s="3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B131">
         <v>2500000000</v>
       </c>
       <c r="C131">
@@ -6450,8 +11022,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B132" s="3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B132">
         <v>2600000000</v>
       </c>
       <c r="C132">
@@ -6461,8 +11033,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B133" s="3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B133">
         <v>2700000000</v>
       </c>
       <c r="C133">
@@ -6472,8 +11044,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B134" s="3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B134">
         <v>2800000000</v>
       </c>
       <c r="C134">
@@ -6483,8 +11055,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B135" s="3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B135">
         <v>2900000000</v>
       </c>
       <c r="C135">
@@ -6494,8 +11066,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B136" s="3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B136">
         <v>3000000000</v>
       </c>
       <c r="C136">
@@ -6505,8 +11077,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="137" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B137" s="3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B137">
         <v>3100000000</v>
       </c>
       <c r="C137">
@@ -6516,8 +11088,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B138" s="3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B138">
         <v>3200000000</v>
       </c>
       <c r="C138">
@@ -6527,8 +11099,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="139" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B139" s="3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B139">
         <v>3300000000</v>
       </c>
       <c r="C139">
@@ -6538,8 +11110,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="140" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B140" s="3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B140">
         <v>3400000000</v>
       </c>
       <c r="C140">
@@ -6549,8 +11121,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B141" s="3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B141">
         <v>3500000000</v>
       </c>
       <c r="C141">
@@ -6560,8 +11132,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B142" s="3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B142">
         <v>3600000000</v>
       </c>
       <c r="C142">
@@ -6571,8 +11143,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B143" s="3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B143">
         <v>3700000000</v>
       </c>
       <c r="C143">
@@ -6582,8 +11154,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B144" s="3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B144">
         <v>3800000000</v>
       </c>
       <c r="C144">
@@ -6593,8 +11165,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="145" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B145" s="3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B145">
         <v>3900000000</v>
       </c>
       <c r="C145">
@@ -6604,8 +11176,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="146" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B146" s="3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B146">
         <v>4000000000</v>
       </c>
       <c r="C146">
@@ -6615,8 +11187,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="147" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B147" s="3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B147">
         <v>4100000000</v>
       </c>
       <c r="C147">
@@ -6626,8 +11198,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="148" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B148" s="3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B148">
         <v>4200000000</v>
       </c>
       <c r="C148">
@@ -6637,8 +11209,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="149" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B149" s="3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B149">
         <v>4300000000</v>
       </c>
       <c r="C149">
@@ -6648,8 +11220,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="150" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B150" s="3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B150">
         <v>4400000000</v>
       </c>
       <c r="C150">
@@ -6659,8 +11231,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="151" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B151" s="3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B151">
         <v>4500000000</v>
       </c>
       <c r="C151">
@@ -6670,8 +11242,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="152" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B152" s="3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B152">
         <v>4600000000</v>
       </c>
       <c r="C152">
@@ -6681,8 +11253,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="153" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B153" s="3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B153">
         <v>4700000000</v>
       </c>
       <c r="C153">
@@ -6692,8 +11264,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="154" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B154" s="3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B154">
         <v>4800000000</v>
       </c>
       <c r="C154">
@@ -6703,8 +11275,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="155" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B155" s="3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B155">
         <v>4900000000</v>
       </c>
       <c r="C155">
@@ -6714,8 +11286,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="156" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B156" s="3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B156">
         <v>5000000000</v>
       </c>
       <c r="C156">
@@ -6725,8 +11297,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="157" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B157" s="3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B157">
         <v>5100000000</v>
       </c>
       <c r="C157">
@@ -6736,8 +11308,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B158" s="3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B158">
         <v>5200000000</v>
       </c>
       <c r="C158">
@@ -6747,8 +11319,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="159" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B159" s="3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B159">
         <v>5300000000</v>
       </c>
       <c r="C159">
@@ -6758,8 +11330,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="160" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B160" s="3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B160">
         <v>5400000000</v>
       </c>
       <c r="C160">
@@ -6769,8 +11341,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="161" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B161" s="3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B161">
         <v>5500000000</v>
       </c>
       <c r="C161">
@@ -6780,8 +11352,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B162" s="3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B162">
         <v>5600000000</v>
       </c>
       <c r="C162">
@@ -6791,8 +11363,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="163" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B163" s="3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B163">
         <v>5700000000</v>
       </c>
       <c r="C163">
@@ -6802,8 +11374,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="164" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B164" s="3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B164">
         <v>5800000000</v>
       </c>
       <c r="C164">
@@ -6813,8 +11385,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="165" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B165" s="3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B165">
         <v>5900000000</v>
       </c>
       <c r="C165">
@@ -6824,8 +11396,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B166" s="3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B166">
         <v>6000000000</v>
       </c>
       <c r="C166">
@@ -6835,8 +11407,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="167" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B167" s="3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B167">
         <v>6100000000</v>
       </c>
       <c r="C167">
@@ -6846,8 +11418,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B168" s="3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B168">
         <v>6200000000</v>
       </c>
       <c r="C168">
@@ -6857,8 +11429,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="169" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B169" s="3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B169">
         <v>6300000000</v>
       </c>
       <c r="C169">
@@ -6868,8 +11440,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="170" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B170" s="3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B170">
         <v>6400000000</v>
       </c>
       <c r="C170">
@@ -6879,8 +11451,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="171" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B171" s="3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B171">
         <v>6500000000</v>
       </c>
       <c r="C171">
@@ -6890,8 +11462,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B172" s="3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B172">
         <v>6600000000</v>
       </c>
       <c r="C172">
@@ -6901,8 +11473,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="173" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B173" s="3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B173">
         <v>6700000000</v>
       </c>
       <c r="C173">
@@ -6912,8 +11484,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="174" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B174" s="3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B174">
         <v>6800000000</v>
       </c>
       <c r="C174">
@@ -6923,8 +11495,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="175" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B175" s="3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B175">
         <v>6900000000</v>
       </c>
       <c r="C175">
@@ -6934,8 +11506,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="176" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B176" s="3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B176">
         <v>7000000000</v>
       </c>
       <c r="C176">
@@ -6945,8 +11517,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B177" s="3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B177">
         <v>7100000000</v>
       </c>
       <c r="C177">
@@ -6956,8 +11528,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B178" s="3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B178">
         <v>7200000000</v>
       </c>
       <c r="C178">
@@ -6967,8 +11539,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B179" s="3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B179">
         <v>7300000000</v>
       </c>
       <c r="C179">
@@ -6978,8 +11550,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B180" s="3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B180">
         <v>7400000000</v>
       </c>
       <c r="C180">
@@ -6989,8 +11561,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B181" s="3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B181">
         <v>7500000000</v>
       </c>
       <c r="C181">
@@ -7000,8 +11572,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B182" s="3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B182">
         <v>7600000000</v>
       </c>
       <c r="C182">
@@ -7011,8 +11583,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B183" s="3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B183">
         <v>7700000000</v>
       </c>
       <c r="C183">
@@ -7022,8 +11594,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B184" s="3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B184">
         <v>7800000000</v>
       </c>
       <c r="C184">
@@ -7033,8 +11605,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B185" s="3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B185">
         <v>7900000000</v>
       </c>
       <c r="C185">
@@ -7044,8 +11616,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B186" s="3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B186">
         <v>8000000000</v>
       </c>
       <c r="C186">
@@ -7055,8 +11627,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B187" s="3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B187">
         <v>8100000000</v>
       </c>
       <c r="C187">
@@ -7066,8 +11638,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B188" s="3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B188">
         <v>8200000000</v>
       </c>
       <c r="C188">
@@ -7077,8 +11649,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B189" s="3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B189">
         <v>8300000000</v>
       </c>
       <c r="C189">
@@ -7088,8 +11660,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B190" s="3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B190">
         <v>8400000000</v>
       </c>
       <c r="C190">
@@ -7099,8 +11671,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B191" s="3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B191">
         <v>8500000000</v>
       </c>
       <c r="C191">
@@ -7110,8 +11682,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B192" s="3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B192">
         <v>8600000000</v>
       </c>
       <c r="C192">
@@ -7121,8 +11693,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B193" s="3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B193">
         <v>8700000000</v>
       </c>
       <c r="C193">
@@ -7132,8 +11704,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B194" s="3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B194">
         <v>8800000000</v>
       </c>
       <c r="C194">
@@ -7143,8 +11715,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="195" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B195" s="3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B195">
         <v>8900000000</v>
       </c>
       <c r="C195">
@@ -7154,8 +11726,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B196" s="3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B196">
         <v>9000000000</v>
       </c>
       <c r="C196">
@@ -7165,8 +11737,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="197" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B197" s="3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B197">
         <v>9100000000</v>
       </c>
       <c r="C197">
@@ -7176,8 +11748,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B198" s="3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B198">
         <v>9200000000</v>
       </c>
       <c r="C198">
@@ -7187,8 +11759,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B199" s="3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B199">
         <v>9300000000</v>
       </c>
       <c r="C199">
@@ -7198,8 +11770,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B200" s="3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B200">
         <v>9400000000</v>
       </c>
       <c r="C200">
@@ -7209,8 +11781,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B201" s="3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B201">
         <v>9500000000</v>
       </c>
       <c r="C201">
@@ -7220,8 +11792,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B202" s="3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B202">
         <v>9600000000</v>
       </c>
       <c r="C202">
@@ -7231,8 +11803,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B203" s="3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B203">
         <v>9700000000</v>
       </c>
       <c r="C203">
@@ -7242,8 +11814,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="204" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B204" s="3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B204">
         <v>9800000000</v>
       </c>
       <c r="C204">
@@ -7253,8 +11825,8 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="205" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B205" s="3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B205">
         <v>9900000000</v>
       </c>
       <c r="C205">
@@ -7264,8 +11836,2351 @@
         <v>3.1415920000000002</v>
       </c>
     </row>
-    <row r="206" spans="2:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="B206" s="3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B206">
+        <v>10000000000</v>
+      </c>
+      <c r="C206">
+        <v>3.141632</v>
+      </c>
+      <c r="D206" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABE99AE-4E4F-463A-98DD-0BD3F4825741}">
+  <dimension ref="A1:D206"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.06640625" customWidth="1"/>
+    <col min="4" max="4" width="17.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="C2">
+        <v>3.1415139999999999</v>
+      </c>
+      <c r="D2">
+        <v>3.9999099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1"/>
+      <c r="B3">
+        <v>200000000</v>
+      </c>
+      <c r="C3">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="D3">
+        <v>3.9997120000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>300000000</v>
+      </c>
+      <c r="C4">
+        <v>3.1416010000000001</v>
+      </c>
+      <c r="D4">
+        <v>3.9993799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>400000000</v>
+      </c>
+      <c r="C5">
+        <v>3.1416360000000001</v>
+      </c>
+      <c r="D5">
+        <v>3.9989129999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>500000000</v>
+      </c>
+      <c r="C6">
+        <v>3.1416300000000001</v>
+      </c>
+      <c r="D6">
+        <v>3.9983140000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7">
+        <v>600000000</v>
+      </c>
+      <c r="C7">
+        <v>3.1415820000000001</v>
+      </c>
+      <c r="D7">
+        <v>3.9975800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>700000000</v>
+      </c>
+      <c r="C8">
+        <v>3.1416300000000001</v>
+      </c>
+      <c r="D8">
+        <v>3.9967130000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9">
+        <v>800000000</v>
+      </c>
+      <c r="C9">
+        <v>3.1416029999999999</v>
+      </c>
+      <c r="D9">
+        <v>3.995711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>900000000</v>
+      </c>
+      <c r="C10">
+        <v>3.141613</v>
+      </c>
+      <c r="D10">
+        <v>3.9945759999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>1000000000</v>
+      </c>
+      <c r="C11">
+        <v>3.1416390000000001</v>
+      </c>
+      <c r="D11">
+        <v>3.993306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>1100000000</v>
+      </c>
+      <c r="C12">
+        <v>3.1416620000000002</v>
+      </c>
+      <c r="D12">
+        <v>3.9919020000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="1"/>
+      <c r="B13">
+        <v>1200000000</v>
+      </c>
+      <c r="C13">
+        <v>3.1416430000000002</v>
+      </c>
+      <c r="D13">
+        <v>3.9903620000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14">
+        <v>1300000000</v>
+      </c>
+      <c r="C14">
+        <v>3.141645</v>
+      </c>
+      <c r="D14">
+        <v>3.9886879999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <v>1400000000</v>
+      </c>
+      <c r="C15">
+        <v>3.1416499999999998</v>
+      </c>
+      <c r="D15">
+        <v>3.9868790000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="B16">
+        <v>1500000000</v>
+      </c>
+      <c r="C16">
+        <v>3.1416409999999999</v>
+      </c>
+      <c r="D16">
+        <v>3.9849329999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17">
+        <v>1600000000</v>
+      </c>
+      <c r="C17">
+        <v>3.1416240000000002</v>
+      </c>
+      <c r="D17">
+        <v>3.9828519999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>1700000000</v>
+      </c>
+      <c r="C18">
+        <v>3.141616</v>
+      </c>
+      <c r="D18">
+        <v>3.9806339999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>1800000000</v>
+      </c>
+      <c r="C19">
+        <v>3.1416200000000001</v>
+      </c>
+      <c r="D19">
+        <v>3.9782790000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <v>1900000000</v>
+      </c>
+      <c r="C20">
+        <v>3.1416149999999998</v>
+      </c>
+      <c r="D20">
+        <v>3.975787</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1"/>
+      <c r="B21">
+        <v>2000000000</v>
+      </c>
+      <c r="C21">
+        <v>3.1416050000000002</v>
+      </c>
+      <c r="D21">
+        <v>3.973157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22">
+        <v>2100000000</v>
+      </c>
+      <c r="C22">
+        <v>3.1416050000000002</v>
+      </c>
+      <c r="D22">
+        <v>3.9703889999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <v>2200000000</v>
+      </c>
+      <c r="C23">
+        <v>3.1416029999999999</v>
+      </c>
+      <c r="D23">
+        <v>3.9674809999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24">
+        <v>2300000000</v>
+      </c>
+      <c r="C24">
+        <v>3.1416010000000001</v>
+      </c>
+      <c r="D24">
+        <v>3.9644349999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25">
+        <v>2400000000</v>
+      </c>
+      <c r="C25">
+        <v>3.1416010000000001</v>
+      </c>
+      <c r="D25">
+        <v>3.9612479999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1"/>
+      <c r="B26">
+        <v>2500000000</v>
+      </c>
+      <c r="C26">
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="D26">
+        <v>3.9579209999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1"/>
+      <c r="B27">
+        <v>2600000000</v>
+      </c>
+      <c r="C27">
+        <v>3.1416080000000002</v>
+      </c>
+      <c r="D27">
+        <v>3.954453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="B28">
+        <v>2700000000</v>
+      </c>
+      <c r="C28">
+        <v>3.1416140000000001</v>
+      </c>
+      <c r="D28">
+        <v>3.9508420000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1"/>
+      <c r="B29">
+        <v>2800000000</v>
+      </c>
+      <c r="C29">
+        <v>3.1416170000000001</v>
+      </c>
+      <c r="D29">
+        <v>3.9470890000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1"/>
+      <c r="B30">
+        <v>2900000000</v>
+      </c>
+      <c r="C30">
+        <v>3.1416010000000001</v>
+      </c>
+      <c r="D30">
+        <v>3.9431929999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1"/>
+      <c r="B31">
+        <v>3000000000</v>
+      </c>
+      <c r="C31">
+        <v>3.1416019999999998</v>
+      </c>
+      <c r="D31">
+        <v>3.939152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1"/>
+      <c r="B32">
+        <v>3100000000</v>
+      </c>
+      <c r="C32">
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="D32">
+        <v>3.9349660000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1"/>
+      <c r="B33">
+        <v>3200000000</v>
+      </c>
+      <c r="C33">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D33">
+        <v>3.930634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34">
+        <v>3300000000</v>
+      </c>
+      <c r="C34">
+        <v>3.1415850000000001</v>
+      </c>
+      <c r="D34">
+        <v>3.9261550000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35">
+        <v>3400000000</v>
+      </c>
+      <c r="C35">
+        <v>3.1415860000000002</v>
+      </c>
+      <c r="D35">
+        <v>3.921529</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36">
+        <v>3500000000</v>
+      </c>
+      <c r="C36">
+        <v>3.141581</v>
+      </c>
+      <c r="D36">
+        <v>3.9167540000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1"/>
+      <c r="B37">
+        <v>3600000000</v>
+      </c>
+      <c r="C37">
+        <v>3.141575</v>
+      </c>
+      <c r="D37">
+        <v>3.9118279999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="B38">
+        <v>3700000000</v>
+      </c>
+      <c r="C38">
+        <v>3.141575</v>
+      </c>
+      <c r="D38">
+        <v>3.906752</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="B39">
+        <v>3800000000</v>
+      </c>
+      <c r="C39">
+        <v>3.1415799999999998</v>
+      </c>
+      <c r="D39">
+        <v>3.9015240000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="1"/>
+      <c r="B40">
+        <v>3900000000</v>
+      </c>
+      <c r="C40">
+        <v>3.1415829999999998</v>
+      </c>
+      <c r="D40">
+        <v>3.8961429999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41">
+        <v>4000000000</v>
+      </c>
+      <c r="C41">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="D41">
+        <v>3.8906070000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="1"/>
+      <c r="B42">
+        <v>4100000000</v>
+      </c>
+      <c r="C42">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="D42">
+        <v>3.8849149999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="1"/>
+      <c r="B43">
+        <v>4200000000</v>
+      </c>
+      <c r="C43">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="D43">
+        <v>3.879067</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="1"/>
+      <c r="B44">
+        <v>4300000000</v>
+      </c>
+      <c r="C44">
+        <v>3.1415850000000001</v>
+      </c>
+      <c r="D44">
+        <v>3.873059</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="B45">
+        <v>4400000000</v>
+      </c>
+      <c r="C45">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D45">
+        <v>3.866892</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="1"/>
+      <c r="B46">
+        <v>4500000000</v>
+      </c>
+      <c r="C46">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="D46">
+        <v>3.8605640000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="1"/>
+      <c r="B47">
+        <v>4600000000</v>
+      </c>
+      <c r="C47">
+        <v>3.141591</v>
+      </c>
+      <c r="D47">
+        <v>3.8540719999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="1"/>
+      <c r="B48">
+        <v>4700000000</v>
+      </c>
+      <c r="C48">
+        <v>3.141594</v>
+      </c>
+      <c r="D48">
+        <v>3.8474159999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="1"/>
+      <c r="B49">
+        <v>4800000000</v>
+      </c>
+      <c r="C49">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D49">
+        <v>3.8405930000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50">
+        <v>4900000000</v>
+      </c>
+      <c r="C50">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D50">
+        <v>3.8336030000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51">
+        <v>5000000000</v>
+      </c>
+      <c r="C51">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D51">
+        <v>3.8264420000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52">
+        <v>5100000000</v>
+      </c>
+      <c r="C52">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D52">
+        <v>3.8191090000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+      <c r="B53">
+        <v>5200000000</v>
+      </c>
+      <c r="C53">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D53">
+        <v>3.8116020000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="1"/>
+      <c r="B54">
+        <v>5300000000</v>
+      </c>
+      <c r="C54">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="D54">
+        <v>3.8039190000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="1"/>
+      <c r="B55">
+        <v>5400000000</v>
+      </c>
+      <c r="C55">
+        <v>3.141591</v>
+      </c>
+      <c r="D55">
+        <v>3.7960579999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="1"/>
+      <c r="B56">
+        <v>5500000000</v>
+      </c>
+      <c r="C56">
+        <v>3.141594</v>
+      </c>
+      <c r="D56">
+        <v>3.7880150000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="1"/>
+      <c r="B57">
+        <v>5600000000</v>
+      </c>
+      <c r="C57">
+        <v>3.1415860000000002</v>
+      </c>
+      <c r="D57">
+        <v>3.7797900000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="1"/>
+      <c r="B58">
+        <v>5700000000</v>
+      </c>
+      <c r="C58">
+        <v>3.1415839999999999</v>
+      </c>
+      <c r="D58">
+        <v>3.771379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="1"/>
+      <c r="B59">
+        <v>5800000000</v>
+      </c>
+      <c r="C59">
+        <v>3.1415869999999999</v>
+      </c>
+      <c r="D59">
+        <v>3.7627790000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="1"/>
+      <c r="B60">
+        <v>5900000000</v>
+      </c>
+      <c r="C60">
+        <v>3.141588</v>
+      </c>
+      <c r="D60">
+        <v>3.7539880000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="1"/>
+      <c r="B61">
+        <v>6000000000</v>
+      </c>
+      <c r="C61">
+        <v>3.1415860000000002</v>
+      </c>
+      <c r="D61">
+        <v>3.7450040000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="1"/>
+      <c r="B62">
+        <v>6100000000</v>
+      </c>
+      <c r="C62">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D62">
+        <v>3.7358210000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="1"/>
+      <c r="B63">
+        <v>6200000000</v>
+      </c>
+      <c r="C63">
+        <v>3.141588</v>
+      </c>
+      <c r="D63">
+        <v>3.7264390000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="1"/>
+      <c r="B64">
+        <v>6300000000</v>
+      </c>
+      <c r="C64">
+        <v>3.1415860000000002</v>
+      </c>
+      <c r="D64">
+        <v>3.7168519999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="1"/>
+      <c r="B65">
+        <v>6400000000</v>
+      </c>
+      <c r="C65">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D65">
+        <v>3.7070590000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="1"/>
+      <c r="B66">
+        <v>6500000000</v>
+      </c>
+      <c r="C66">
+        <v>3.1415899999999999</v>
+      </c>
+      <c r="D66">
+        <v>3.6970529999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="1"/>
+      <c r="B67">
+        <v>6600000000</v>
+      </c>
+      <c r="C67">
+        <v>3.1415869999999999</v>
+      </c>
+      <c r="D67">
+        <v>3.686833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="1"/>
+      <c r="B68">
+        <v>6700000000</v>
+      </c>
+      <c r="C68">
+        <v>3.1415860000000002</v>
+      </c>
+      <c r="D68">
+        <v>3.676393</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="1"/>
+      <c r="B69">
+        <v>6800000000</v>
+      </c>
+      <c r="C69">
+        <v>3.141578</v>
+      </c>
+      <c r="D69">
+        <v>3.6657299999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="1"/>
+      <c r="B70">
+        <v>6900000000</v>
+      </c>
+      <c r="C70">
+        <v>3.1415790000000001</v>
+      </c>
+      <c r="D70">
+        <v>3.6548370000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="1"/>
+      <c r="B71">
+        <v>7000000000</v>
+      </c>
+      <c r="C71">
+        <v>3.1415799999999998</v>
+      </c>
+      <c r="D71">
+        <v>3.6437119999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="1"/>
+      <c r="B72">
+        <v>7100000000</v>
+      </c>
+      <c r="C72">
+        <v>3.1415769999999998</v>
+      </c>
+      <c r="D72">
+        <v>3.6323470000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="1"/>
+      <c r="B73">
+        <v>7200000000</v>
+      </c>
+      <c r="C73">
+        <v>3.1415790000000001</v>
+      </c>
+      <c r="D73">
+        <v>3.6207379999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="1"/>
+      <c r="B74">
+        <v>7300000000</v>
+      </c>
+      <c r="C74">
+        <v>3.1415820000000001</v>
+      </c>
+      <c r="D74">
+        <v>3.6088779999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="1"/>
+      <c r="B75">
+        <v>7400000000</v>
+      </c>
+      <c r="C75">
+        <v>3.1415869999999999</v>
+      </c>
+      <c r="D75">
+        <v>3.596762</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="1"/>
+      <c r="B76">
+        <v>7500000000</v>
+      </c>
+      <c r="C76">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D76">
+        <v>3.5843820000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="1"/>
+      <c r="B77">
+        <v>7600000000</v>
+      </c>
+      <c r="C77">
+        <v>3.1415920000000002</v>
+      </c>
+      <c r="D77">
+        <v>3.5717300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="1"/>
+      <c r="B78">
+        <v>7700000000</v>
+      </c>
+      <c r="C78">
+        <v>3.141591</v>
+      </c>
+      <c r="D78">
+        <v>3.5588000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="1"/>
+      <c r="B79">
+        <v>7800000000</v>
+      </c>
+      <c r="C79">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D79">
+        <v>3.5455830000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="1"/>
+      <c r="B80">
+        <v>7900000000</v>
+      </c>
+      <c r="C80">
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="D80">
+        <v>3.5320689999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="1"/>
+      <c r="B81">
+        <v>8000000000</v>
+      </c>
+      <c r="C81">
+        <v>3.141594</v>
+      </c>
+      <c r="D81">
+        <v>3.5182479999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="1"/>
+      <c r="B82">
+        <v>8100000000</v>
+      </c>
+      <c r="C82">
+        <v>3.141594</v>
+      </c>
+      <c r="D82">
+        <v>3.5041099999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="1"/>
+      <c r="B83">
+        <v>8200000000</v>
+      </c>
+      <c r="C83">
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="D83">
+        <v>3.4896430000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="1"/>
+      <c r="B84">
+        <v>8300000000</v>
+      </c>
+      <c r="C84">
+        <v>3.141594</v>
+      </c>
+      <c r="D84">
+        <v>3.474834</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="1"/>
+      <c r="B85">
+        <v>8400000000</v>
+      </c>
+      <c r="C85">
+        <v>3.1415959999999998</v>
+      </c>
+      <c r="D85">
+        <v>3.4596689999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="1"/>
+      <c r="B86">
+        <v>8500000000</v>
+      </c>
+      <c r="C86">
+        <v>3.141594</v>
+      </c>
+      <c r="D86">
+        <v>3.4441320000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="1"/>
+      <c r="B87">
+        <v>8600000000</v>
+      </c>
+      <c r="C87">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D87">
+        <v>3.4282059999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="1"/>
+      <c r="B88">
+        <v>8700000000</v>
+      </c>
+      <c r="C88">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D88">
+        <v>3.4118710000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="1"/>
+      <c r="B89">
+        <v>8800000000</v>
+      </c>
+      <c r="C89">
+        <v>3.141594</v>
+      </c>
+      <c r="D89">
+        <v>3.3951039999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="1"/>
+      <c r="B90">
+        <v>8900000000</v>
+      </c>
+      <c r="C90">
+        <v>3.141594</v>
+      </c>
+      <c r="D90">
+        <v>3.3778820000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="1"/>
+      <c r="B91">
+        <v>9000000000</v>
+      </c>
+      <c r="C91">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D91">
+        <v>3.3601740000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="1"/>
+      <c r="B92">
+        <v>9100000000</v>
+      </c>
+      <c r="C92">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D92">
+        <v>3.3419469999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="1"/>
+      <c r="B93">
+        <v>9200000000</v>
+      </c>
+      <c r="C93">
+        <v>3.1415890000000002</v>
+      </c>
+      <c r="D93">
+        <v>3.3231619999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="1"/>
+      <c r="B94">
+        <v>9300000000</v>
+      </c>
+      <c r="C94">
+        <v>3.1415920000000002</v>
+      </c>
+      <c r="D94">
+        <v>3.3037700000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="1"/>
+      <c r="B95">
+        <v>9400000000</v>
+      </c>
+      <c r="C95">
+        <v>3.141591</v>
+      </c>
+      <c r="D95">
+        <v>3.283712</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="1"/>
+      <c r="B96">
+        <v>9500000000</v>
+      </c>
+      <c r="C96">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D96">
+        <v>3.262915</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="1"/>
+      <c r="B97">
+        <v>9600000000</v>
+      </c>
+      <c r="C97">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D97">
+        <v>3.2412800000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="1"/>
+      <c r="B98">
+        <v>9700000000</v>
+      </c>
+      <c r="C98">
+        <v>3.141591</v>
+      </c>
+      <c r="D98">
+        <v>3.2186710000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="1"/>
+      <c r="B99">
+        <v>9800000000</v>
+      </c>
+      <c r="C99">
+        <v>3.1415920000000002</v>
+      </c>
+      <c r="D99">
+        <v>3.1948840000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="1"/>
+      <c r="B100">
+        <v>9900000000</v>
+      </c>
+      <c r="C100">
+        <v>3.1415929999999999</v>
+      </c>
+      <c r="D100">
+        <v>3.1695540000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="1"/>
+      <c r="B101">
+        <v>10000000000</v>
+      </c>
+      <c r="C101">
+        <v>3.1415950000000001</v>
+      </c>
+      <c r="D101">
+        <v>3.141632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B107">
+        <v>100000000</v>
+      </c>
+      <c r="C107">
+        <v>3.9999099999999999</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B108">
+        <v>200000000</v>
+      </c>
+      <c r="C108">
+        <v>3.9997120000000002</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B109">
+        <v>300000000</v>
+      </c>
+      <c r="C109">
+        <v>3.9993799999999999</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B110">
+        <v>400000000</v>
+      </c>
+      <c r="C110">
+        <v>3.9989129999999999</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B111">
+        <v>500000000</v>
+      </c>
+      <c r="C111">
+        <v>3.9983140000000001</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>600000000</v>
+      </c>
+      <c r="C112">
+        <v>3.9975800000000001</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B113">
+        <v>700000000</v>
+      </c>
+      <c r="C113">
+        <v>3.9967130000000002</v>
+      </c>
+      <c r="D113" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B114">
+        <v>800000000</v>
+      </c>
+      <c r="C114">
+        <v>3.995711</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B115">
+        <v>900000000</v>
+      </c>
+      <c r="C115">
+        <v>3.9945759999999999</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B116">
+        <v>1000000000</v>
+      </c>
+      <c r="C116">
+        <v>3.993306</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B117">
+        <v>1100000000</v>
+      </c>
+      <c r="C117">
+        <v>3.9919020000000001</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B118">
+        <v>1200000000</v>
+      </c>
+      <c r="C118">
+        <v>3.9903620000000002</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B119">
+        <v>1300000000</v>
+      </c>
+      <c r="C119">
+        <v>3.9886879999999998</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B120">
+        <v>1400000000</v>
+      </c>
+      <c r="C120">
+        <v>3.9868790000000001</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B121">
+        <v>1500000000</v>
+      </c>
+      <c r="C121">
+        <v>3.9849329999999998</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B122">
+        <v>1600000000</v>
+      </c>
+      <c r="C122">
+        <v>3.9828519999999998</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B123">
+        <v>1700000000</v>
+      </c>
+      <c r="C123">
+        <v>3.9806339999999998</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B124">
+        <v>1800000000</v>
+      </c>
+      <c r="C124">
+        <v>3.9782790000000001</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B125">
+        <v>1900000000</v>
+      </c>
+      <c r="C125">
+        <v>3.975787</v>
+      </c>
+      <c r="D125" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B126">
+        <v>2000000000</v>
+      </c>
+      <c r="C126">
+        <v>3.973157</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B127">
+        <v>2100000000</v>
+      </c>
+      <c r="C127">
+        <v>3.9703889999999999</v>
+      </c>
+      <c r="D127" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B128">
+        <v>2200000000</v>
+      </c>
+      <c r="C128">
+        <v>3.9674809999999998</v>
+      </c>
+      <c r="D128" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B129">
+        <v>2300000000</v>
+      </c>
+      <c r="C129">
+        <v>3.9644349999999999</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B130">
+        <v>2400000000</v>
+      </c>
+      <c r="C130">
+        <v>3.9612479999999999</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B131">
+        <v>2500000000</v>
+      </c>
+      <c r="C131">
+        <v>3.9579209999999998</v>
+      </c>
+      <c r="D131" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B132">
+        <v>2600000000</v>
+      </c>
+      <c r="C132">
+        <v>3.954453</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B133">
+        <v>2700000000</v>
+      </c>
+      <c r="C133">
+        <v>3.9508420000000002</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B134">
+        <v>2800000000</v>
+      </c>
+      <c r="C134">
+        <v>3.9470890000000001</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B135">
+        <v>2900000000</v>
+      </c>
+      <c r="C135">
+        <v>3.9431929999999999</v>
+      </c>
+      <c r="D135" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B136">
+        <v>3000000000</v>
+      </c>
+      <c r="C136">
+        <v>3.939152</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B137">
+        <v>3100000000</v>
+      </c>
+      <c r="C137">
+        <v>3.9349660000000002</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B138">
+        <v>3200000000</v>
+      </c>
+      <c r="C138">
+        <v>3.930634</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B139">
+        <v>3300000000</v>
+      </c>
+      <c r="C139">
+        <v>3.9261550000000001</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B140">
+        <v>3400000000</v>
+      </c>
+      <c r="C140">
+        <v>3.921529</v>
+      </c>
+      <c r="D140" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B141">
+        <v>3500000000</v>
+      </c>
+      <c r="C141">
+        <v>3.9167540000000001</v>
+      </c>
+      <c r="D141" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B142">
+        <v>3600000000</v>
+      </c>
+      <c r="C142">
+        <v>3.9118279999999999</v>
+      </c>
+      <c r="D142" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B143">
+        <v>3700000000</v>
+      </c>
+      <c r="C143">
+        <v>3.906752</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B144">
+        <v>3800000000</v>
+      </c>
+      <c r="C144">
+        <v>3.9015240000000002</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B145">
+        <v>3900000000</v>
+      </c>
+      <c r="C145">
+        <v>3.8961429999999999</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B146">
+        <v>4000000000</v>
+      </c>
+      <c r="C146">
+        <v>3.8906070000000001</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B147">
+        <v>4100000000</v>
+      </c>
+      <c r="C147">
+        <v>3.8849149999999999</v>
+      </c>
+      <c r="D147" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B148">
+        <v>4200000000</v>
+      </c>
+      <c r="C148">
+        <v>3.879067</v>
+      </c>
+      <c r="D148" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B149">
+        <v>4300000000</v>
+      </c>
+      <c r="C149">
+        <v>3.873059</v>
+      </c>
+      <c r="D149" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B150">
+        <v>4400000000</v>
+      </c>
+      <c r="C150">
+        <v>3.866892</v>
+      </c>
+      <c r="D150" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B151">
+        <v>4500000000</v>
+      </c>
+      <c r="C151">
+        <v>3.8605640000000001</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B152">
+        <v>4600000000</v>
+      </c>
+      <c r="C152">
+        <v>3.8540719999999999</v>
+      </c>
+      <c r="D152" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B153">
+        <v>4700000000</v>
+      </c>
+      <c r="C153">
+        <v>3.8474159999999999</v>
+      </c>
+      <c r="D153" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B154">
+        <v>4800000000</v>
+      </c>
+      <c r="C154">
+        <v>3.8405930000000001</v>
+      </c>
+      <c r="D154" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B155">
+        <v>4900000000</v>
+      </c>
+      <c r="C155">
+        <v>3.8336030000000001</v>
+      </c>
+      <c r="D155" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B156">
+        <v>5000000000</v>
+      </c>
+      <c r="C156">
+        <v>3.8264420000000001</v>
+      </c>
+      <c r="D156" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B157">
+        <v>5100000000</v>
+      </c>
+      <c r="C157">
+        <v>3.8191090000000001</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B158">
+        <v>5200000000</v>
+      </c>
+      <c r="C158">
+        <v>3.8116020000000002</v>
+      </c>
+      <c r="D158" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B159">
+        <v>5300000000</v>
+      </c>
+      <c r="C159">
+        <v>3.8039190000000001</v>
+      </c>
+      <c r="D159" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B160">
+        <v>5400000000</v>
+      </c>
+      <c r="C160">
+        <v>3.7960579999999999</v>
+      </c>
+      <c r="D160" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B161">
+        <v>5500000000</v>
+      </c>
+      <c r="C161">
+        <v>3.7880150000000001</v>
+      </c>
+      <c r="D161" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B162">
+        <v>5600000000</v>
+      </c>
+      <c r="C162">
+        <v>3.7797900000000002</v>
+      </c>
+      <c r="D162" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B163">
+        <v>5700000000</v>
+      </c>
+      <c r="C163">
+        <v>3.771379</v>
+      </c>
+      <c r="D163" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B164">
+        <v>5800000000</v>
+      </c>
+      <c r="C164">
+        <v>3.7627790000000001</v>
+      </c>
+      <c r="D164" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B165">
+        <v>5900000000</v>
+      </c>
+      <c r="C165">
+        <v>3.7539880000000001</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B166">
+        <v>6000000000</v>
+      </c>
+      <c r="C166">
+        <v>3.7450040000000002</v>
+      </c>
+      <c r="D166" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B167">
+        <v>6100000000</v>
+      </c>
+      <c r="C167">
+        <v>3.7358210000000001</v>
+      </c>
+      <c r="D167" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B168">
+        <v>6200000000</v>
+      </c>
+      <c r="C168">
+        <v>3.7264390000000001</v>
+      </c>
+      <c r="D168" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B169">
+        <v>6300000000</v>
+      </c>
+      <c r="C169">
+        <v>3.7168519999999998</v>
+      </c>
+      <c r="D169" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B170">
+        <v>6400000000</v>
+      </c>
+      <c r="C170">
+        <v>3.7070590000000001</v>
+      </c>
+      <c r="D170" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B171">
+        <v>6500000000</v>
+      </c>
+      <c r="C171">
+        <v>3.6970529999999999</v>
+      </c>
+      <c r="D171" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B172">
+        <v>6600000000</v>
+      </c>
+      <c r="C172">
+        <v>3.686833</v>
+      </c>
+      <c r="D172" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B173">
+        <v>6700000000</v>
+      </c>
+      <c r="C173">
+        <v>3.676393</v>
+      </c>
+      <c r="D173" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B174">
+        <v>6800000000</v>
+      </c>
+      <c r="C174">
+        <v>3.6657299999999999</v>
+      </c>
+      <c r="D174" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B175">
+        <v>6900000000</v>
+      </c>
+      <c r="C175">
+        <v>3.6548370000000001</v>
+      </c>
+      <c r="D175" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B176">
+        <v>7000000000</v>
+      </c>
+      <c r="C176">
+        <v>3.6437119999999998</v>
+      </c>
+      <c r="D176" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B177">
+        <v>7100000000</v>
+      </c>
+      <c r="C177">
+        <v>3.6323470000000002</v>
+      </c>
+      <c r="D177" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B178">
+        <v>7200000000</v>
+      </c>
+      <c r="C178">
+        <v>3.6207379999999998</v>
+      </c>
+      <c r="D178" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B179">
+        <v>7300000000</v>
+      </c>
+      <c r="C179">
+        <v>3.6088779999999998</v>
+      </c>
+      <c r="D179" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B180">
+        <v>7400000000</v>
+      </c>
+      <c r="C180">
+        <v>3.596762</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B181">
+        <v>7500000000</v>
+      </c>
+      <c r="C181">
+        <v>3.5843820000000002</v>
+      </c>
+      <c r="D181" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B182">
+        <v>7600000000</v>
+      </c>
+      <c r="C182">
+        <v>3.5717300000000001</v>
+      </c>
+      <c r="D182" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B183">
+        <v>7700000000</v>
+      </c>
+      <c r="C183">
+        <v>3.5588000000000002</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B184">
+        <v>7800000000</v>
+      </c>
+      <c r="C184">
+        <v>3.5455830000000002</v>
+      </c>
+      <c r="D184" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B185">
+        <v>7900000000</v>
+      </c>
+      <c r="C185">
+        <v>3.5320689999999999</v>
+      </c>
+      <c r="D185" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B186">
+        <v>8000000000</v>
+      </c>
+      <c r="C186">
+        <v>3.5182479999999998</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B187">
+        <v>8100000000</v>
+      </c>
+      <c r="C187">
+        <v>3.5041099999999998</v>
+      </c>
+      <c r="D187" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B188">
+        <v>8200000000</v>
+      </c>
+      <c r="C188">
+        <v>3.4896430000000001</v>
+      </c>
+      <c r="D188" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B189">
+        <v>8300000000</v>
+      </c>
+      <c r="C189">
+        <v>3.474834</v>
+      </c>
+      <c r="D189" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B190">
+        <v>8400000000</v>
+      </c>
+      <c r="C190">
+        <v>3.4596689999999999</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B191">
+        <v>8500000000</v>
+      </c>
+      <c r="C191">
+        <v>3.4441320000000002</v>
+      </c>
+      <c r="D191" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B192">
+        <v>8600000000</v>
+      </c>
+      <c r="C192">
+        <v>3.4282059999999999</v>
+      </c>
+      <c r="D192" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B193">
+        <v>8700000000</v>
+      </c>
+      <c r="C193">
+        <v>3.4118710000000001</v>
+      </c>
+      <c r="D193" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B194">
+        <v>8800000000</v>
+      </c>
+      <c r="C194">
+        <v>3.3951039999999999</v>
+      </c>
+      <c r="D194" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B195">
+        <v>8900000000</v>
+      </c>
+      <c r="C195">
+        <v>3.3778820000000001</v>
+      </c>
+      <c r="D195" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B196">
+        <v>9000000000</v>
+      </c>
+      <c r="C196">
+        <v>3.3601740000000002</v>
+      </c>
+      <c r="D196" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B197">
+        <v>9100000000</v>
+      </c>
+      <c r="C197">
+        <v>3.3419469999999998</v>
+      </c>
+      <c r="D197" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B198">
+        <v>9200000000</v>
+      </c>
+      <c r="C198">
+        <v>3.3231619999999999</v>
+      </c>
+      <c r="D198" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B199">
+        <v>9300000000</v>
+      </c>
+      <c r="C199">
+        <v>3.3037700000000001</v>
+      </c>
+      <c r="D199" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B200">
+        <v>9400000000</v>
+      </c>
+      <c r="C200">
+        <v>3.283712</v>
+      </c>
+      <c r="D200" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B201">
+        <v>9500000000</v>
+      </c>
+      <c r="C201">
+        <v>3.262915</v>
+      </c>
+      <c r="D201" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B202">
+        <v>9600000000</v>
+      </c>
+      <c r="C202">
+        <v>3.2412800000000002</v>
+      </c>
+      <c r="D202" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B203">
+        <v>9700000000</v>
+      </c>
+      <c r="C203">
+        <v>3.2186710000000001</v>
+      </c>
+      <c r="D203" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B204">
+        <v>9800000000</v>
+      </c>
+      <c r="C204">
+        <v>3.1948840000000001</v>
+      </c>
+      <c r="D204" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B205">
+        <v>9900000000</v>
+      </c>
+      <c r="C205">
+        <v>3.1695540000000002</v>
+      </c>
+      <c r="D205" s="1">
+        <v>3.1415920000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B206">
         <v>10000000000</v>
       </c>
       <c r="C206">
